--- a/Content/DT/키입력 정리 (1).xlsx
+++ b/Content/DT/키입력 정리 (1).xlsx
@@ -7,14 +7,14 @@
     <sheet state="visible" name="시트2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'시트2'!$A$1:$J$29</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'시트2'!$A$1:$K$29</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="155">
   <si>
     <t>전투 상태</t>
   </si>
@@ -218,6 +218,126 @@
     <t>설명</t>
   </si>
   <si>
+    <t>스킬 타입</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>상호작용</t>
+  </si>
+  <si>
+    <t>다른 객체와 상호작용</t>
+  </si>
+  <si>
+    <t>AC_상호작용</t>
+  </si>
+  <si>
+    <t>LMB</t>
+  </si>
+  <si>
+    <t>attack</t>
+  </si>
+  <si>
+    <t>기본공격</t>
+  </si>
+  <si>
+    <t>AT_기본공격</t>
+  </si>
+  <si>
+    <t>RMB</t>
+  </si>
+  <si>
+    <t>attack2</t>
+  </si>
+  <si>
+    <t>기본공격2</t>
+  </si>
+  <si>
+    <t>AT2_기본공격2</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>가방</t>
+  </si>
+  <si>
+    <t>UI_가방</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>HP 회복</t>
+  </si>
+  <si>
+    <t>IT_HP_회복</t>
+  </si>
+  <si>
+    <t>스태미너 회복</t>
+  </si>
+  <si>
+    <t>IT_스태미너_회복</t>
+  </si>
+  <si>
+    <t>SPACE BAR</t>
+  </si>
+  <si>
+    <t>jump</t>
+  </si>
+  <si>
+    <t>MV_점프</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>앞으로 이동</t>
+  </si>
+  <si>
+    <t>MV_앞으로_이동</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>좌로 이동</t>
+  </si>
+  <si>
+    <t>MV_좌로_이동</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>MV_뒤로_이동</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>우로 이동</t>
+  </si>
+  <si>
+    <t>MV_우로_이동</t>
+  </si>
+  <si>
+    <t>SHIFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">달리기 </t>
+  </si>
+  <si>
+    <t>MV_달리기</t>
+  </si>
+  <si>
     <t>skill</t>
   </si>
   <si>
@@ -227,12 +347,18 @@
     <t>SK_막기_LV1</t>
   </si>
   <si>
+    <t>홀딩</t>
+  </si>
+  <si>
     <t>돌진</t>
   </si>
   <si>
     <t>SK_돌진_LV1</t>
   </si>
   <si>
+    <t>일반</t>
+  </si>
+  <si>
     <t>상태이상</t>
   </si>
   <si>
@@ -242,19 +368,7 @@
     <t>SK_필살기</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>HP 회복</t>
-  </si>
-  <si>
-    <t>IT_HP_회복</t>
-  </si>
-  <si>
-    <t>스태미너 회복</t>
-  </si>
-  <si>
-    <t>IT_스태미너_회복</t>
+    <t>차징</t>
   </si>
   <si>
     <t>Q</t>
@@ -266,60 +380,12 @@
     <t>SK_좌로_회피</t>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>앞으로 이동</t>
-  </si>
-  <si>
-    <t>MV_앞으로_이동</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
     <t>우로 회피</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>좌로 이동</t>
-  </si>
-  <si>
-    <t>MV_좌로_이동</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>MV_뒤로_이동</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>우로 이동</t>
-  </si>
-  <si>
-    <t>MV_우로_이동</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>상호작용</t>
-  </si>
-  <si>
-    <t>다른 객체와 상호작용</t>
-  </si>
-  <si>
-    <t>AC_상호작용</t>
-  </si>
-  <si>
     <t>TAB</t>
   </si>
   <si>
@@ -329,46 +395,79 @@
     <t>SK_스킬7</t>
   </si>
   <si>
-    <t>SHIFT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">달리기 </t>
-  </si>
-  <si>
-    <t>MV_달리기</t>
-  </si>
-  <si>
-    <t>SPACE BAR</t>
-  </si>
-  <si>
-    <t>jump</t>
-  </si>
-  <si>
-    <t>MV_점프</t>
-  </si>
-  <si>
-    <t>LMB</t>
-  </si>
-  <si>
-    <t>attack</t>
-  </si>
-  <si>
-    <t>기본공격</t>
-  </si>
-  <si>
-    <t>AT_기본공격</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>Inventory</t>
-  </si>
-  <si>
-    <t>가방</t>
-  </si>
-  <si>
-    <t>UI_가방</t>
+    <t>WW</t>
+  </si>
+  <si>
+    <t>대쉬</t>
+  </si>
+  <si>
+    <t>SK_대쉬</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>백스텝</t>
+  </si>
+  <si>
+    <t>SK_백스텝</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>스킬1</t>
+  </si>
+  <si>
+    <t>SK_스킬1</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>스킬2</t>
+  </si>
+  <si>
+    <t>SK_스킬2</t>
+  </si>
+  <si>
+    <t>콤보</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>스킬3</t>
+  </si>
+  <si>
+    <t>SK_스킬3</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>스킬4</t>
+  </si>
+  <si>
+    <t>SK_스킬4</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>스킬5</t>
+  </si>
+  <si>
+    <t>SK_스킬5</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>스킬6</t>
+  </si>
+  <si>
+    <t>SK_스킬6</t>
   </si>
   <si>
     <t>U</t>
@@ -381,90 +480,6 @@
   </si>
   <si>
     <t>UI_유저_정보</t>
-  </si>
-  <si>
-    <t>WW</t>
-  </si>
-  <si>
-    <t>대쉬</t>
-  </si>
-  <si>
-    <t>SK_대쉬</t>
-  </si>
-  <si>
-    <t>SS</t>
-  </si>
-  <si>
-    <t>백스텝</t>
-  </si>
-  <si>
-    <t>SK_백스텝</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>스킬1</t>
-  </si>
-  <si>
-    <t>SK_스킬1</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>스킬2</t>
-  </si>
-  <si>
-    <t>SK_스킬2</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>스킬3</t>
-  </si>
-  <si>
-    <t>SK_스킬3</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>스킬4</t>
-  </si>
-  <si>
-    <t>SK_스킬4</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>스킬5</t>
-  </si>
-  <si>
-    <t>SK_스킬5</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>스킬6</t>
-  </si>
-  <si>
-    <t>SK_스킬6</t>
-  </si>
-  <si>
-    <t>RMB</t>
-  </si>
-  <si>
-    <t>attack2</t>
-  </si>
-  <si>
-    <t>기본공격2</t>
-  </si>
-  <si>
-    <t>AT2_기본공격2</t>
   </si>
 </sst>
 </file>
@@ -492,7 +507,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -566,6 +581,20 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF284E3F"/>
       </left>
       <right style="thin">
@@ -584,6 +613,20 @@
       </left>
       <right style="thin">
         <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF6F8F9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
       </right>
       <top style="thin">
         <color rgb="FFF6F8F9"/>
@@ -620,11 +663,25 @@
         <color rgb="FF284E3F"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF6F8F9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -650,28 +707,43 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -735,9 +807,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:J29" displayName="표1" name="표1" id="1">
-  <autoFilter ref="$A$1:$J$29"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:K29" displayName="표1" name="표1" id="1">
+  <autoFilter ref="$A$1:$K$29"/>
+  <tableColumns count="11">
     <tableColumn name="입력키" id="1"/>
     <tableColumn name="타입" id="2"/>
     <tableColumn name="기능" id="3"/>
@@ -748,6 +820,7 @@
     <tableColumn name="VFX" id="8"/>
     <tableColumn name="애니메이션" id="9"/>
     <tableColumn name="설명" id="10"/>
+    <tableColumn name="스킬 타입" id="11"/>
   </tableColumns>
   <tableStyleInfo name="시트2-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
@@ -1375,485 +1448,546 @@
       <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="K1" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="5">
-        <v>1.0</v>
+      <c r="A2" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E2" s="7" t="b">
         <v>1</v>
       </c>
+      <c r="K2" s="8"/>
     </row>
     <row r="3">
-      <c r="A3" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="10" t="b">
-        <v>1</v>
-      </c>
+      <c r="A3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="12"/>
     </row>
     <row r="4">
-      <c r="A4" s="5">
-        <v>3.0</v>
+      <c r="A4" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E4" s="7" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K4" s="8"/>
     </row>
     <row r="5">
-      <c r="A5" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="10" t="b">
-        <v>1</v>
-      </c>
+      <c r="A5" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="12"/>
     </row>
     <row r="6">
       <c r="A6" s="5">
         <v>5.0</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E6" s="7" t="b">
         <v>1</v>
       </c>
+      <c r="K6" s="8"/>
     </row>
     <row r="7">
-      <c r="A7" s="8">
+      <c r="A7" s="14">
         <v>6.0</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="10" t="b">
-        <v>1</v>
-      </c>
+      <c r="B7" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="12"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E8" s="7" t="b">
         <v>1</v>
       </c>
+      <c r="K8" s="8"/>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="10" t="b">
-        <v>1</v>
-      </c>
+      <c r="A9" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="12"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E10" s="7" t="b">
         <v>1</v>
       </c>
+      <c r="K10" s="8"/>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="10" t="b">
-        <v>1</v>
-      </c>
+      <c r="A11" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" s="12"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="14">
+        <v>2.0</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="14">
+        <v>4.0</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="8" t="s">
+      <c r="E19" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="C20" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" s="9" t="s">
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" s="16" t="s">
         <v>117</v>
-      </c>
-      <c r="E19" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E21" s="10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23" s="10" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E24" s="7" t="b">
         <v>0</v>
       </c>
+      <c r="K24" s="15" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25" s="10" t="b">
+      <c r="A25" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="11" t="b">
         <v>0</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E26" s="7" t="b">
         <v>0</v>
       </c>
+      <c r="K26" s="15" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E27" s="10" t="b">
+      <c r="A27" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="11" t="b">
         <v>0</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E28" s="7" t="b">
         <v>0</v>
       </c>
+      <c r="K28" s="15" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="E29" s="15" t="b">
-        <v>0</v>
-      </c>
+      <c r="A29" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E29" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" s="20"/>
     </row>
   </sheetData>
   <dataValidations>
